--- a/Data/PEW Middle Class Data.xlsx
+++ b/Data/PEW Middle Class Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-49380" yWindow="-13380" windowWidth="22620" windowHeight="31160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24260" windowHeight="15600" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1. Distribution, metro" sheetId="13" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="7. Unemployment, metro" sheetId="19" r:id="rId7"/>
     <sheet name="8. Sectors, metro" sheetId="20" r:id="rId8"/>
     <sheet name="9. Cost of living, metro" sheetId="21" r:id="rId9"/>
+    <sheet name="BEA Regions" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="351">
   <si>
     <t>Lower</t>
   </si>
@@ -1045,6 +1046,42 @@
   <si>
     <t>Metro</t>
   </si>
+  <si>
+    <t>New England Region</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Region Code</t>
+  </si>
+  <si>
+    <t>Mideast Region</t>
+  </si>
+  <si>
+    <t>Great Lakes Region</t>
+  </si>
+  <si>
+    <t>Plains Region</t>
+  </si>
+  <si>
+    <t>Southeast Region</t>
+  </si>
+  <si>
+    <t>Southwest Region</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Region</t>
+  </si>
+  <si>
+    <t>Far West Region</t>
+  </si>
+  <si>
+    <t>Source: http://www.bea.gov/regional/docs/regions.cfm</t>
+  </si>
 </sst>
 </file>
 
@@ -1058,7 +1095,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +1237,12 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1568,7 +1611,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1633,6 +1676,8 @@
       <alignment horizontal="right" indent="12"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="44" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2023,20 +2068,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="79.5" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
@@ -2060,27 +2105,27 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="35">
+      <c r="B8" s="37">
         <v>2000</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="F8" s="35">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="F8" s="37">
         <v>2014</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="J8" s="28" t="s">
         <v>327</v>
       </c>
@@ -8564,6 +8609,607 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C11" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C17" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C20" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C23" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C25" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C26" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="C27" s="35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C36" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C40" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C42" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="C43" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C44" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C52" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" s="35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="35">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8594,21 +9240,21 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="64.5" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -8633,27 +9279,27 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="35">
+      <c r="B8" s="37">
         <v>2000</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="F8" s="35">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="F8" s="37">
         <v>2014</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="J8" s="28" t="s">
         <v>327</v>
       </c>
@@ -11892,7 +12538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -11909,19 +12555,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
@@ -18661,7 +19307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M242"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -18677,21 +19323,21 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -18716,18 +19362,18 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <v>1999</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="G7" s="35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="G7" s="37">
         <v>2014</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="1" t="s">
@@ -22318,21 +22964,21 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -22357,23 +23003,23 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="38">
+      <c r="B8" s="40">
         <v>1999</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="E8" s="35">
+      <c r="C8" s="40"/>
+      <c r="E8" s="37">
         <v>2014</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:13" s="12" customFormat="1" ht="28">
       <c r="B9" s="13" t="s">
@@ -26372,21 +27018,21 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -26415,22 +27061,22 @@
       <c r="E5" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="35">
+      <c r="B7" s="37">
         <v>2000</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="I7" s="35">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="I7" s="37">
         <v>2014</v>
       </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="77.25" customHeight="1">
       <c r="B8" s="13" t="s">
@@ -35905,7 +36551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V238"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A62" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -35925,21 +36571,21 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:22" s="26" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="3" t="s">
@@ -40321,7 +40967,7 @@
   <dimension ref="A1:K244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -40339,19 +40985,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
@@ -40376,18 +41022,18 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="G7" s="35" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="G7" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" s="6" t="s">
@@ -47347,8 +47993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
